--- a/data/trans_orig/P6708-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>34048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24123</v>
+        <v>24280</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46033</v>
+        <v>46776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1228387750073946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08703062299703325</v>
+        <v>0.08759698425522368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1660792674626323</v>
+        <v>0.168761704149509</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -764,19 +764,19 @@
         <v>26624</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18471</v>
+        <v>17797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38266</v>
+        <v>38720</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1192110983501378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08270734071917546</v>
+        <v>0.07968756355510437</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1713395182782881</v>
+        <v>0.1733744484957569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -785,19 +785,19 @@
         <v>60672</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46188</v>
+        <v>46648</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77929</v>
+        <v>76589</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1212200541858531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0922824635765134</v>
+        <v>0.09320088487518885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1557006166368957</v>
+        <v>0.1530234147644371</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>21458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14429</v>
+        <v>13739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32849</v>
+        <v>32548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07741725377337141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05205812605502128</v>
+        <v>0.04956857713425912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1185129553288705</v>
+        <v>0.1174296462378005</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -835,19 +835,19 @@
         <v>22264</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13669</v>
+        <v>14404</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32821</v>
+        <v>33062</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09968742931285998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06120266942808155</v>
+        <v>0.06449672495506727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1469570295799553</v>
+        <v>0.1480370226844322</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -856,19 +856,19 @@
         <v>43722</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31283</v>
+        <v>33042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57494</v>
+        <v>57968</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08735452223775939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06250224203443543</v>
+        <v>0.06601630756074435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1148705965022274</v>
+        <v>0.1158177464293803</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>60458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46611</v>
+        <v>47313</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77117</v>
+        <v>75276</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2181244803677662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1681650994020442</v>
+        <v>0.1706986615833397</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2782275436881635</v>
+        <v>0.2715832277121992</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -906,19 +906,19 @@
         <v>52013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38803</v>
+        <v>39692</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66108</v>
+        <v>66112</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2328933235986903</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1737440307744776</v>
+        <v>0.1777228116605936</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.296006843043084</v>
+        <v>0.296023880385275</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>103</v>
@@ -927,19 +927,19 @@
         <v>112471</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>91229</v>
+        <v>94352</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131741</v>
+        <v>132263</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2247145478701044</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.182273749818596</v>
+        <v>0.1885128399356222</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2632142168857871</v>
+        <v>0.2642578425185555</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>55575</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42526</v>
+        <v>43255</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69972</v>
+        <v>70017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.200506612204031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1534287481563467</v>
+        <v>0.1560578490242424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2524495501202926</v>
+        <v>0.2526109020538663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -977,19 +977,19 @@
         <v>40849</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29970</v>
+        <v>30898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52464</v>
+        <v>53705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.182905833425158</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1341932402127249</v>
+        <v>0.1383493976430419</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2349138319769013</v>
+        <v>0.24046957503546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -998,19 +998,19 @@
         <v>96424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77797</v>
+        <v>78602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114248</v>
+        <v>116339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1926528948591527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1554351179297448</v>
+        <v>0.157045170454776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2282639591505195</v>
+        <v>0.2324419408400801</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>105635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88695</v>
+        <v>88727</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122998</v>
+        <v>123898</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3811128786474368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3199964598577461</v>
+        <v>0.3201139386651676</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4437558302196625</v>
+        <v>0.4470031213372828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1048,19 +1048,19 @@
         <v>81584</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66275</v>
+        <v>67132</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98103</v>
+        <v>96255</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.365302315313154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2967537476270882</v>
+        <v>0.3005902128527529</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4392680915034493</v>
+        <v>0.4309930756410394</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -1069,19 +1069,19 @@
         <v>187219</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167033</v>
+        <v>166464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>211151</v>
+        <v>209234</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3740579808471303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3337259365772069</v>
+        <v>0.332590591511335</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4218742294115276</v>
+        <v>0.418043444051565</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>17827</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10606</v>
+        <v>10651</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28673</v>
+        <v>29698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04701143111905837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02797024227408947</v>
+        <v>0.02808928570329498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07561416788884026</v>
+        <v>0.0783174490673227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1194,19 +1194,19 @@
         <v>26560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18527</v>
+        <v>17993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37217</v>
+        <v>38560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1049137892088959</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07318092731740451</v>
+        <v>0.07107393023726644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1470067668093293</v>
+        <v>0.1523136281482577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1215,19 +1215,19 @@
         <v>44387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32249</v>
+        <v>31926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58604</v>
+        <v>59920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07019245601683188</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05099727005553671</v>
+        <v>0.05048737901480846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09267395625166383</v>
+        <v>0.094755051681508</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>44850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33524</v>
+        <v>31675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60326</v>
+        <v>59481</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1182767968282956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0884070968886141</v>
+        <v>0.08353063213763273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.159088429380466</v>
+        <v>0.156860781537893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>25719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17328</v>
+        <v>17700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37013</v>
+        <v>37552</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1015894341722264</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06844406797160654</v>
+        <v>0.06991352328063949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.146201768323977</v>
+        <v>0.1483315283575179</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -1286,19 +1286,19 @@
         <v>70569</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>56182</v>
+        <v>56126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86801</v>
+        <v>87942</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1115960642645486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08884461279383392</v>
+        <v>0.08875591993896763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1372644055911381</v>
+        <v>0.1390685915773911</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>85260</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69841</v>
+        <v>70275</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103052</v>
+        <v>104221</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2248413194415094</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1841805450865139</v>
+        <v>0.1853243837702604</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2717629106259754</v>
+        <v>0.2748453865296912</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -1336,19 +1336,19 @@
         <v>61736</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48308</v>
+        <v>46737</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77053</v>
+        <v>76322</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2438569858888079</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1908177988850031</v>
+        <v>0.1846100396613094</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3043588492066149</v>
+        <v>0.3014704588120578</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>142</v>
@@ -1357,19 +1357,19 @@
         <v>146996</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>126427</v>
+        <v>126874</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>169007</v>
+        <v>170907</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.232454181022702</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1999273361137413</v>
+        <v>0.2006344737332139</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2672612181414509</v>
+        <v>0.2702666158811948</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>85533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69415</v>
+        <v>71253</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102608</v>
+        <v>101396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2255627850949737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1830575176600586</v>
+        <v>0.1879044925663436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2705923766043264</v>
+        <v>0.267396335652863</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1407,19 +1407,19 @@
         <v>53414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40191</v>
+        <v>41307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69092</v>
+        <v>68402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2109852799408876</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.158753639554165</v>
+        <v>0.163162879363507</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2729137356564316</v>
+        <v>0.270188866172674</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -1428,19 +1428,19 @@
         <v>138947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>120166</v>
+        <v>118247</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161026</v>
+        <v>161494</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2197267272715601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1900261781096301</v>
+        <v>0.1869910227086068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2546402817700934</v>
+        <v>0.2553809941997992</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>145729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127249</v>
+        <v>126395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166482</v>
+        <v>165098</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.384307667516163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.335572066273628</v>
+        <v>0.3333201084419238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4390367020170499</v>
+        <v>0.4353851095997875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -1478,19 +1478,19 @@
         <v>85735</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70517</v>
+        <v>71404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102440</v>
+        <v>103337</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3386545107891823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2785414679609603</v>
+        <v>0.2820472232347273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4046389687499702</v>
+        <v>0.4081801846842409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -1499,19 +1499,19 @@
         <v>231465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>207473</v>
+        <v>207217</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257571</v>
+        <v>259542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3660305714243574</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3280906764697078</v>
+        <v>0.3276859898774752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4073142327992959</v>
+        <v>0.4104308889524356</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>28356</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19020</v>
+        <v>19141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42270</v>
+        <v>42138</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0623390430532236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04181557799185459</v>
+        <v>0.0420816150128456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09292939445729673</v>
+        <v>0.09263911324857282</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1624,19 +1624,19 @@
         <v>18589</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11473</v>
+        <v>11213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29046</v>
+        <v>28076</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06670876960333617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04117272350260327</v>
+        <v>0.040240465393408</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.104235452578284</v>
+        <v>0.1007538723469019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1645,19 +1645,19 @@
         <v>46945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34561</v>
+        <v>35091</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62671</v>
+        <v>63369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06399908272045446</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04711658866958269</v>
+        <v>0.04783922412699684</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08543766157442033</v>
+        <v>0.08638986504934681</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>27942</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16936</v>
+        <v>17351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40643</v>
+        <v>41265</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06143078576578498</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03723367774581992</v>
+        <v>0.03814491430580855</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08935230910183845</v>
+        <v>0.09071934964256026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1695,19 +1695,19 @@
         <v>14921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8033</v>
+        <v>8370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25156</v>
+        <v>24196</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05354374634338491</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02882586110771128</v>
+        <v>0.03003581074055373</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09027454306296046</v>
+        <v>0.08683071447673275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -1716,19 +1716,19 @@
         <v>42863</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30508</v>
+        <v>30301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58087</v>
+        <v>58592</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05843453459353248</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04159084165046317</v>
+        <v>0.04130834507615993</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07918836670876088</v>
+        <v>0.07987788555137837</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>90538</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73380</v>
+        <v>75175</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107662</v>
+        <v>108775</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1990452697064203</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1613239159115344</v>
+        <v>0.1652699695439099</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2366918070112259</v>
+        <v>0.2391389433657067</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -1766,19 +1766,19 @@
         <v>47804</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36291</v>
+        <v>36552</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61773</v>
+        <v>61502</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1715472459176422</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1302330599188281</v>
+        <v>0.1311703675217264</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.221675442173757</v>
+        <v>0.2207048133266999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>135</v>
@@ -1787,19 +1787,19 @@
         <v>138342</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>117355</v>
+        <v>118027</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>159403</v>
+        <v>159203</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1885988928596464</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.159987370239499</v>
+        <v>0.1609036292873258</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2173115193727059</v>
+        <v>0.2170387244163303</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>126788</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>108314</v>
+        <v>106857</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146910</v>
+        <v>147498</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2787402830436865</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2381249884390877</v>
+        <v>0.2349233172046985</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3229772088285993</v>
+        <v>0.324270793551122</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -1837,19 +1837,19 @@
         <v>91805</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77414</v>
+        <v>76883</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107806</v>
+        <v>108736</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3294489411289681</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.277806661316425</v>
+        <v>0.2759011253738068</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.386870722590455</v>
+        <v>0.390208360058045</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -1858,19 +1858,19 @@
         <v>218593</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>192438</v>
+        <v>193110</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>248625</v>
+        <v>243153</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2980042765518033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2623474289770822</v>
+        <v>0.2632639538981105</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3389456787316794</v>
+        <v>0.3314862899139981</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>181237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>160949</v>
+        <v>160574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203939</v>
+        <v>203109</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3984446184308845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3538427367264567</v>
+        <v>0.3530177257719979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4483549620224283</v>
+        <v>0.4465294139036475</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -1908,19 +1908,19 @@
         <v>105544</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89500</v>
+        <v>89792</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121909</v>
+        <v>121215</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3787512970066687</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3211763411365754</v>
+        <v>0.3222263999151636</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4374796320632343</v>
+        <v>0.4349884468502113</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>270</v>
@@ -1929,19 +1929,19 @@
         <v>286781</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>260530</v>
+        <v>257636</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>313875</v>
+        <v>314581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3909632132745633</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3551756672264887</v>
+        <v>0.3512308928398905</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4279004715719125</v>
+        <v>0.4288628322722076</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>25970</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16355</v>
+        <v>16377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37836</v>
+        <v>39942</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08762804050209236</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05518349275075935</v>
+        <v>0.05525964701947801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1276661630391777</v>
+        <v>0.1347704554735673</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2054,19 +2054,19 @@
         <v>18096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11098</v>
+        <v>10616</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28214</v>
+        <v>27077</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09751771217611366</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05980714727728737</v>
+        <v>0.05720750921152835</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1520436913469306</v>
+        <v>0.1459161188217129</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2075,19 +2075,19 @@
         <v>44066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31971</v>
+        <v>31589</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58345</v>
+        <v>58201</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09143595362198192</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06633949375259786</v>
+        <v>0.06554733497355152</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1210655951455015</v>
+        <v>0.1207656874793397</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>12203</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5938</v>
+        <v>6106</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22276</v>
+        <v>22808</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04117519535703214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02003480863796646</v>
+        <v>0.02060121115428301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07516147173678236</v>
+        <v>0.07695825291391616</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2125,19 +2125,19 @@
         <v>14158</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8015</v>
+        <v>8148</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24087</v>
+        <v>22144</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0762949280610694</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04319082367317309</v>
+        <v>0.0439117060925205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1298065433097832</v>
+        <v>0.1193327984253265</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2146,19 +2146,19 @@
         <v>26361</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16768</v>
+        <v>17359</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38452</v>
+        <v>39675</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05469767571217018</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0347935061778567</v>
+        <v>0.03601956161259786</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07978677555478071</v>
+        <v>0.08232502156737315</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>50639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39224</v>
+        <v>38391</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66450</v>
+        <v>64800</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1708630530274325</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1323470989740453</v>
+        <v>0.1295372666523943</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2242146472181285</v>
+        <v>0.2186475597551603</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -2196,19 +2196,19 @@
         <v>39081</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27808</v>
+        <v>28765</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52094</v>
+        <v>52865</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2106086396934425</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.14985519769602</v>
+        <v>0.1550173969655599</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2807337158238641</v>
+        <v>0.2848913602700722</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -2217,19 +2217,19 @@
         <v>89720</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71526</v>
+        <v>72534</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108315</v>
+        <v>109374</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1861666693568579</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1484147006468213</v>
+        <v>0.150506371239021</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2247519448988632</v>
+        <v>0.2269500573375693</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>76424</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61211</v>
+        <v>61365</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92510</v>
+        <v>92651</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2578676263161734</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2065370364051352</v>
+        <v>0.207055911553884</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3121442690944609</v>
+        <v>0.312620775041211</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2267,19 +2267,19 @@
         <v>39747</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29457</v>
+        <v>29051</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52599</v>
+        <v>51385</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2141967644427645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1587422621254051</v>
+        <v>0.1565541720562365</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2834540563179914</v>
+        <v>0.2769158496034601</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -2288,19 +2288,19 @@
         <v>116171</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>99345</v>
+        <v>96947</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137872</v>
+        <v>136233</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2410526244267304</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2061394064410719</v>
+        <v>0.2011629299323953</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2860820524783371</v>
+        <v>0.2826812776131026</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>131133</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>111933</v>
+        <v>113830</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>148626</v>
+        <v>152757</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4424660847972695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3776826721589843</v>
+        <v>0.3840825566725802</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5014901362613052</v>
+        <v>0.5154290353143949</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -2338,19 +2338,19 @@
         <v>74482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61246</v>
+        <v>61603</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88249</v>
+        <v>89269</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4013819556266099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3300557371510113</v>
+        <v>0.3319793880848899</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4755762033271758</v>
+        <v>0.4810716412375192</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>184</v>
@@ -2359,19 +2359,19 @@
         <v>205615</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>183111</v>
+        <v>183437</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>230246</v>
+        <v>231084</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4266470768822596</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.379951501542282</v>
+        <v>0.3806282157137619</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4777569819174356</v>
+        <v>0.4794950143051285</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>106200</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>86705</v>
+        <v>86931</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>130303</v>
+        <v>130548</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07544758066393731</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06159734624176764</v>
+        <v>0.06175802046494554</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09257108695245715</v>
+        <v>0.09274477507520816</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -2484,19 +2484,19 @@
         <v>89869</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73932</v>
+        <v>72999</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>110456</v>
+        <v>109520</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09553201496961422</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0785907207408028</v>
+        <v>0.07759885832611231</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1174163520534468</v>
+        <v>0.116420778957622</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>180</v>
@@ -2505,19 +2505,19 @@
         <v>196070</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>167841</v>
+        <v>170297</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>227425</v>
+        <v>227060</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0834932667477622</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0714724087652783</v>
+        <v>0.07251820954585322</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09684559661123762</v>
+        <v>0.09669001064748728</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>106454</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>87190</v>
+        <v>87044</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>129815</v>
+        <v>131156</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07562787982408863</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06194219696922026</v>
+        <v>0.06183863603120249</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0922237489128811</v>
+        <v>0.09317676284589062</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>72</v>
@@ -2555,19 +2555,19 @@
         <v>77061</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>61610</v>
+        <v>60725</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>96761</v>
+        <v>95972</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08191626800359937</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06549242119770057</v>
+        <v>0.06455088439319928</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1028581515197441</v>
+        <v>0.1020190094587103</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>168</v>
@@ -2576,19 +2576,19 @@
         <v>183515</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>157576</v>
+        <v>158030</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>211616</v>
+        <v>211094</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07814696482770647</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06710137874840677</v>
+        <v>0.06729483382960297</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0901136075981022</v>
+        <v>0.0898911349035512</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>286895</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>257361</v>
+        <v>255418</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>315860</v>
+        <v>315639</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2038177637049432</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1828362113728058</v>
+        <v>0.1814555408947255</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2243952926281011</v>
+        <v>0.2242382821137435</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>182</v>
@@ -2626,19 +2626,19 @@
         <v>200634</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>173566</v>
+        <v>176643</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>226774</v>
+        <v>229453</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.213276064032758</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1845030034735975</v>
+        <v>0.1877738789734083</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2410633110070853</v>
+        <v>0.2439113333651247</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>461</v>
@@ -2647,19 +2647,19 @@
         <v>487529</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>451437</v>
+        <v>449856</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>528047</v>
+        <v>533311</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2076066936875331</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1922376966832527</v>
+        <v>0.191564568177305</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2248609538271497</v>
+        <v>0.2271024841027678</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>344321</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>311486</v>
+        <v>311611</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>376720</v>
+        <v>377999</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2446147360427048</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2212878478641872</v>
+        <v>0.2213770027493451</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2676319619687385</v>
+        <v>0.2685408352422217</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>212</v>
@@ -2697,19 +2697,19 @@
         <v>225815</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>200376</v>
+        <v>201334</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>257834</v>
+        <v>252622</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.240043956839888</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2130018435627877</v>
+        <v>0.2140198803534279</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2740798675797623</v>
+        <v>0.2685398275733455</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>540</v>
@@ -2718,19 +2718,19 @@
         <v>570136</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>530015</v>
+        <v>528718</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>615047</v>
+        <v>613975</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2427837133678991</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2256990287038909</v>
+        <v>0.2251466857838415</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2619085737451478</v>
+        <v>0.2614519408714908</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>563734</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>525884</v>
+        <v>525600</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>600236</v>
+        <v>606625</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4004920397643261</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3736023778649527</v>
+        <v>0.3734003313878176</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4264239125645059</v>
+        <v>0.4309626519245494</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>317</v>
@@ -2768,19 +2768,19 @@
         <v>347345</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>316551</v>
+        <v>314559</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>380835</v>
+        <v>379399</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3692316961541404</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3364974400913796</v>
+        <v>0.3343800934560756</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4048321750164395</v>
+        <v>0.4033048602433641</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>841</v>
@@ -2789,19 +2789,19 @@
         <v>911079</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>857381</v>
+        <v>860674</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>953908</v>
+        <v>956881</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3879693613690992</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3651026681277858</v>
+        <v>0.3665050335297962</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4062072966482227</v>
+        <v>0.4074731094607207</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>33527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23776</v>
+        <v>23482</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47795</v>
+        <v>44682</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1142012514923148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08098699603287453</v>
+        <v>0.07998557257296865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1628001701124446</v>
+        <v>0.1521993561952888</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -3154,19 +3154,19 @@
         <v>31772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22547</v>
+        <v>22227</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44401</v>
+        <v>44594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1146063940827637</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08132915928068658</v>
+        <v>0.08017486698085122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1601582359506485</v>
+        <v>0.1608561911119486</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -3175,19 +3175,19 @@
         <v>65299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50499</v>
+        <v>51454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81806</v>
+        <v>82627</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.114398021385607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08846908136054081</v>
+        <v>0.09014235308184401</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1433161327998661</v>
+        <v>0.1447533979236791</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>48475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35829</v>
+        <v>36690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63565</v>
+        <v>62887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.165116949902195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1220424979845122</v>
+        <v>0.124976298396133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2165188374603526</v>
+        <v>0.2142075204652183</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -3225,19 +3225,19 @@
         <v>50511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39075</v>
+        <v>39000</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64712</v>
+        <v>64431</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1821981643946063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1409481415337866</v>
+        <v>0.1406773623340499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.233420881264668</v>
+        <v>0.2324082354064133</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -3246,19 +3246,19 @@
         <v>98986</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82151</v>
+        <v>80895</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119373</v>
+        <v>118129</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1734129642739469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1439201283203823</v>
+        <v>0.1417205575354441</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2091293999175287</v>
+        <v>0.2069503102236645</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>94216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78837</v>
+        <v>78369</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112641</v>
+        <v>111679</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3209242725678841</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2685377470724356</v>
+        <v>0.2669427813492113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.383682905965513</v>
+        <v>0.3804064771910982</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>87</v>
@@ -3296,19 +3296,19 @@
         <v>87569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72859</v>
+        <v>73359</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>103124</v>
+        <v>104942</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3158712688755769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2628100893892917</v>
+        <v>0.2646118224604402</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3719799162680295</v>
+        <v>0.378534958904446</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>173</v>
@@ -3317,19 +3317,19 @@
         <v>181786</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>158968</v>
+        <v>157838</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>206860</v>
+        <v>203201</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3184701267417475</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2784952018775245</v>
+        <v>0.2765163312555845</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3623978448377457</v>
+        <v>0.3559878929032591</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>54534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41784</v>
+        <v>42719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69526</v>
+        <v>69312</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1857550455318885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1423253152320075</v>
+        <v>0.1455112173563954</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2368244118164843</v>
+        <v>0.2360934549714679</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -3367,19 +3367,19 @@
         <v>58071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46157</v>
+        <v>45731</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72582</v>
+        <v>71743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2094672300330452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1664929582215851</v>
+        <v>0.1649577928369589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2618096810289988</v>
+        <v>0.2587831275906579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -3388,19 +3388,19 @@
         <v>112604</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92687</v>
+        <v>93928</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133967</v>
+        <v>132561</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1972715933449624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1623784489842884</v>
+        <v>0.1645527413314704</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2346963353339864</v>
+        <v>0.2322336942098571</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>62826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48408</v>
+        <v>49566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>78429</v>
+        <v>78101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2140024805057176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1648886373019284</v>
+        <v>0.1688350056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2671492344032921</v>
+        <v>0.2660308863300819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -3438,19 +3438,19 @@
         <v>49307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37826</v>
+        <v>36247</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63769</v>
+        <v>63635</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1778569426140079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1364417722947657</v>
+        <v>0.1307466017996409</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2300227146613671</v>
+        <v>0.2295389843857964</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>103</v>
@@ -3459,19 +3459,19 @@
         <v>112134</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>93276</v>
+        <v>94466</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>132111</v>
+        <v>132017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1964472942537362</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1634102710288048</v>
+        <v>0.1654943701346469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2314454046536213</v>
+        <v>0.2312800729507959</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>28952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18982</v>
+        <v>19755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40673</v>
+        <v>40351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07414475858315643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04861373582113255</v>
+        <v>0.05059195538433015</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1041622153204626</v>
+        <v>0.1033388936325789</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3584,19 +3584,19 @@
         <v>32807</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22442</v>
+        <v>22863</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44133</v>
+        <v>44096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.121482870710196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08310360316915714</v>
+        <v>0.08466262464170732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1634225147176288</v>
+        <v>0.1632852486990384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -3605,19 +3605,19 @@
         <v>61758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46528</v>
+        <v>48233</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77182</v>
+        <v>77774</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0934986749665038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07044014961962068</v>
+        <v>0.07302164826004015</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1168492140625815</v>
+        <v>0.117746077488634</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>57181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45136</v>
+        <v>45056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73631</v>
+        <v>72252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1464393426173445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1155919679136019</v>
+        <v>0.1153871781386486</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1885693283866824</v>
+        <v>0.1850368918842459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -3655,19 +3655,19 @@
         <v>39627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29943</v>
+        <v>28979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53071</v>
+        <v>52763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1467362650694048</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1108799368736248</v>
+        <v>0.1073075527776489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1965224085140332</v>
+        <v>0.1953786027374743</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>95</v>
@@ -3676,19 +3676,19 @@
         <v>96807</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>78830</v>
+        <v>81381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115723</v>
+        <v>117118</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.146560737663562</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1193447586305927</v>
+        <v>0.1232065153664311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1751973591000829</v>
+        <v>0.1773097839117718</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>134734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117572</v>
+        <v>116406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156076</v>
+        <v>155013</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3450511931147978</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3010999850479876</v>
+        <v>0.2981148691471715</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3997092023030609</v>
+        <v>0.3969874457615435</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>78</v>
@@ -3726,19 +3726,19 @@
         <v>77999</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62345</v>
+        <v>64046</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91597</v>
+        <v>93686</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2888281610309719</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2308635640188659</v>
+        <v>0.2371617248772365</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3391821524570557</v>
+        <v>0.3469161362069323</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>205</v>
@@ -3747,19 +3747,19 @@
         <v>212732</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>188799</v>
+        <v>187882</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241680</v>
+        <v>236210</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3220647280261937</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2858309933029733</v>
+        <v>0.2844419411743839</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3658901683224972</v>
+        <v>0.357609007641675</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>87850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70431</v>
+        <v>72572</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104637</v>
+        <v>105303</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2249839239151246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1803726266368719</v>
+        <v>0.1858554540542295</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2679748785291008</v>
+        <v>0.2696789006698934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3797,19 +3797,19 @@
         <v>49213</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37905</v>
+        <v>37156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62489</v>
+        <v>62894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1822358407055912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1403597407658609</v>
+        <v>0.1375863842622175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2313935924155426</v>
+        <v>0.2328949303917988</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -3818,19 +3818,19 @@
         <v>137064</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117739</v>
+        <v>117058</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158765</v>
+        <v>160228</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2075066146011119</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1782497095076613</v>
+        <v>0.1772196196236012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2403606470195576</v>
+        <v>0.242576382752505</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>81758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65868</v>
+        <v>66423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98064</v>
+        <v>100062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2093807817695766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1686879059267864</v>
+        <v>0.1701096251792961</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2511420698563651</v>
+        <v>0.2562574372807709</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -3868,19 +3868,19 @@
         <v>70407</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55545</v>
+        <v>56286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>85640</v>
+        <v>86023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2607168624838362</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2056822472458402</v>
+        <v>0.2084273219656895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3171243275294958</v>
+        <v>0.3185420716368418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>145</v>
@@ -3889,19 +3889,19 @@
         <v>152165</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131422</v>
+        <v>131631</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>176702</v>
+        <v>175621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2303692447426286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1989648829003279</v>
+        <v>0.199282461616891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2675172164975372</v>
+        <v>0.2658806523437503</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>46913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34219</v>
+        <v>33504</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61575</v>
+        <v>60948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1028379304383738</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07501113366452111</v>
+        <v>0.07344254390293115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1349779391794353</v>
+        <v>0.133602195388695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -4014,19 +4014,19 @@
         <v>26186</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18072</v>
+        <v>17251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37374</v>
+        <v>35916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09010082672547004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06218082892760549</v>
+        <v>0.05935585417835745</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1285950312480973</v>
+        <v>0.1235770348889418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -4035,19 +4035,19 @@
         <v>73100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57189</v>
+        <v>58111</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88717</v>
+        <v>89542</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0978811373499856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07657694064594019</v>
+        <v>0.07781021147783372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.118792900411373</v>
+        <v>0.1198966283971047</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>53116</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40116</v>
+        <v>39923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68625</v>
+        <v>68042</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.116434032499055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08793669441906676</v>
+        <v>0.08751526259127124</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1504303657063566</v>
+        <v>0.1491542323214936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -4085,19 +4085,19 @@
         <v>40472</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30535</v>
+        <v>29301</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54080</v>
+        <v>51867</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1392538500632081</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1050642773231761</v>
+        <v>0.1008161339136095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1860750128320719</v>
+        <v>0.1784609551845132</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>93</v>
@@ -4106,19 +4106,19 @@
         <v>93588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75732</v>
+        <v>76358</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111509</v>
+        <v>112462</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1253146317726309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1014050150863043</v>
+        <v>0.102243539903834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1493104438197498</v>
+        <v>0.1505876857715213</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>116488</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>98233</v>
+        <v>99132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>136734</v>
+        <v>137760</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2553507369984271</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2153346698955573</v>
+        <v>0.2173054152526968</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2997312463450143</v>
+        <v>0.3019802978827015</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -4156,19 +4156,19 @@
         <v>77938</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63814</v>
+        <v>63586</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93092</v>
+        <v>93881</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2681655009974919</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2195691716634785</v>
+        <v>0.2187835564740271</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3203049264657716</v>
+        <v>0.3230203710292202</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>187</v>
@@ -4177,19 +4177,19 @@
         <v>194426</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>169527</v>
+        <v>170647</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>220119</v>
+        <v>220743</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2603377524967416</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2269976380708731</v>
+        <v>0.2284970347973717</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2947396538640075</v>
+        <v>0.295575692726149</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>113908</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96365</v>
+        <v>95338</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>135868</v>
+        <v>133612</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2496949178406198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2112396380460521</v>
+        <v>0.2089889532897549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2978332747434201</v>
+        <v>0.2928879933851123</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -4227,19 +4227,19 @@
         <v>89218</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74398</v>
+        <v>73165</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>105154</v>
+        <v>105094</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.306977547441777</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2559830391190254</v>
+        <v>0.2517407916522135</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3618084293565075</v>
+        <v>0.3616005118200099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>196</v>
@@ -4248,19 +4248,19 @@
         <v>203127</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>178448</v>
+        <v>180336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>228365</v>
+        <v>228435</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2719871240510524</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2389427736803839</v>
+        <v>0.2414703619348796</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3057817733358623</v>
+        <v>0.3058750518057282</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>125763</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107048</v>
+        <v>106554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146089</v>
+        <v>145993</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2756823822235243</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2346568322476213</v>
+        <v>0.2335745576832291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3202394161819795</v>
+        <v>0.3200276600169313</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -4298,19 +4298,19 @@
         <v>56820</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43314</v>
+        <v>44503</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70069</v>
+        <v>72175</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1955022747720529</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1490337981110955</v>
+        <v>0.153125019573697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2410880243044635</v>
+        <v>0.2483362086195342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>174</v>
@@ -4319,19 +4319,19 @@
         <v>182583</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161660</v>
+        <v>159225</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207698</v>
+        <v>206902</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2444793543295896</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2164634492758272</v>
+        <v>0.2132025424787405</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2781084546979848</v>
+        <v>0.2770431131115294</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>26022</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17460</v>
+        <v>17346</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37419</v>
+        <v>36769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09457368279847581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0634582939801064</v>
+        <v>0.06304232740205433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1359939673094792</v>
+        <v>0.1336339674599179</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -4444,19 +4444,19 @@
         <v>29204</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19454</v>
+        <v>19715</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40617</v>
+        <v>40260</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1504881303254401</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1002472501481383</v>
+        <v>0.1015917291415834</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2092962582136992</v>
+        <v>0.2074605184368628</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -4465,19 +4465,19 @@
         <v>55226</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41063</v>
+        <v>41404</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69895</v>
+        <v>68813</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1176995161663939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08751414572593863</v>
+        <v>0.08824162451632173</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1489626548762298</v>
+        <v>0.1466556822706801</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>35724</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24978</v>
+        <v>24923</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50074</v>
+        <v>50017</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.129836796553894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09078007364462119</v>
+        <v>0.09057942886219325</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1819887042087461</v>
+        <v>0.1817832350349838</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -4515,19 +4515,19 @@
         <v>26414</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17659</v>
+        <v>18043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36851</v>
+        <v>38410</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1361116023422212</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09099379213114958</v>
+        <v>0.09297416991880426</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1898929145412136</v>
+        <v>0.1979276805871318</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>56</v>
@@ -4536,19 +4536,19 @@
         <v>62139</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48728</v>
+        <v>48198</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>78405</v>
+        <v>78280</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1324320133448124</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.103849705162919</v>
+        <v>0.1027207216514531</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1670996676745005</v>
+        <v>0.1668325299827329</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>50683</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38426</v>
+        <v>37600</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66454</v>
+        <v>66393</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1842027649777191</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1396543444796076</v>
+        <v>0.1366545594828099</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2415203697710138</v>
+        <v>0.2412991987264458</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -4586,19 +4586,19 @@
         <v>30413</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21311</v>
+        <v>21714</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41300</v>
+        <v>41378</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1567171859112906</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1098170443072642</v>
+        <v>0.1118933820701574</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2128155174213968</v>
+        <v>0.2132176266008321</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -4607,19 +4607,19 @@
         <v>81096</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66436</v>
+        <v>64640</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100364</v>
+        <v>97139</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1728349173171581</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1415898823952229</v>
+        <v>0.1377638075284813</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2138990190120823</v>
+        <v>0.2070256429205713</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>61785</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48232</v>
+        <v>48024</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77134</v>
+        <v>76953</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2245526977137072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1752957256639649</v>
+        <v>0.1745387170635145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.280335126693841</v>
+        <v>0.2796782175676813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -4657,19 +4657,19 @@
         <v>44838</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33751</v>
+        <v>33059</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56716</v>
+        <v>56542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.231048493265639</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1739165931509538</v>
+        <v>0.1703514193317244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2922566970272623</v>
+        <v>0.2913596376923546</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>102</v>
@@ -4678,19 +4678,19 @@
         <v>106623</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>89535</v>
+        <v>89919</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127683</v>
+        <v>125349</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2272393143605693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1908203773471965</v>
+        <v>0.1916377652084666</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2721224803862515</v>
+        <v>0.2671479002935456</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>100934</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>84716</v>
+        <v>85073</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117051</v>
+        <v>116535</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3668340579562039</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3078915038927705</v>
+        <v>0.3091873881961233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4254110123743179</v>
+        <v>0.4235331796149428</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -4728,19 +4728,19 @@
         <v>63194</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49312</v>
+        <v>49670</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77421</v>
+        <v>76877</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3256345881554091</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2541033982136529</v>
+        <v>0.2559503794772085</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3989490658552588</v>
+        <v>0.3961466025184528</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>149</v>
@@ -4749,19 +4749,19 @@
         <v>164128</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>143430</v>
+        <v>144930</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>186391</v>
+        <v>187540</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3497942388110664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3056836110816271</v>
+        <v>0.3088803075058242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3972422188650601</v>
+        <v>0.3996907761888173</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>135414</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>113501</v>
+        <v>114079</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>159801</v>
+        <v>160097</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09567253957259597</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08019065651642421</v>
+        <v>0.08059898648962431</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1129024629364314</v>
+        <v>0.1131112454430825</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>114</v>
@@ -4874,19 +4874,19 @@
         <v>119970</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101019</v>
+        <v>100701</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>143146</v>
+        <v>142373</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1162519165793094</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09788857024152436</v>
+        <v>0.09758042548393267</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1387094015950927</v>
+        <v>0.137961013437099</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>238</v>
@@ -4895,19 +4895,19 @@
         <v>255384</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>226548</v>
+        <v>226734</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>286783</v>
+        <v>286397</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1043502318275202</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09256790391887973</v>
+        <v>0.09264376748299867</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1171799799962452</v>
+        <v>0.1170223049315745</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>194496</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>169977</v>
+        <v>169211</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>222953</v>
+        <v>225097</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1374150323841902</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1200917691355899</v>
+        <v>0.1195508647485704</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.157520862105345</v>
+        <v>0.1590355475403562</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>155</v>
@@ -4945,19 +4945,19 @@
         <v>157024</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>134361</v>
+        <v>135235</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>180332</v>
+        <v>181168</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1521575090823673</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.130197519875474</v>
+        <v>0.1310441243980009</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1747437356600756</v>
+        <v>0.1755533816710771</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>338</v>
@@ -4966,19 +4966,19 @@
         <v>351520</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>321398</v>
+        <v>319107</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>387782</v>
+        <v>390392</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1436314827568345</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.131323707274488</v>
+        <v>0.1303876199278819</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1584481859336465</v>
+        <v>0.1595148875688998</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>396121</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>360234</v>
+        <v>362127</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>428073</v>
+        <v>431783</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2798671947095853</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2545121087961606</v>
+        <v>0.2558493377634928</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3024420081223412</v>
+        <v>0.3050631604921545</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>273</v>
@@ -5016,19 +5016,19 @@
         <v>273919</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>246091</v>
+        <v>247248</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>301388</v>
+        <v>306852</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2654304884971297</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2384647189386752</v>
+        <v>0.2395857188060451</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2920474812662015</v>
+        <v>0.297342248589875</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>639</v>
@@ -5037,19 +5037,19 @@
         <v>670041</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>623512</v>
+        <v>626343</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>714927</v>
+        <v>713031</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2737796783748793</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2547678818715479</v>
+        <v>0.2559248348748193</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2921203937230302</v>
+        <v>0.2913455605689311</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>318077</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>285213</v>
+        <v>288748</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>349698</v>
+        <v>351689</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2247277960951544</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2015085873821439</v>
+        <v>0.2040062378709684</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2470681055060082</v>
+        <v>0.2484746639150928</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>239</v>
@@ -5087,19 +5087,19 @@
         <v>241341</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>214809</v>
+        <v>215093</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>269338</v>
+        <v>267545</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2338612157605934</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2081517794248036</v>
+        <v>0.2084275357426549</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2609910365694293</v>
+        <v>0.2592535213226542</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>538</v>
@@ -5108,19 +5108,19 @@
         <v>559418</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>519839</v>
+        <v>519948</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>605650</v>
+        <v>604877</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2285790791085273</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2124069759069366</v>
+        <v>0.2124517139477824</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2474696732230443</v>
+        <v>0.2471537187612775</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>371281</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>339018</v>
+        <v>335712</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>406804</v>
+        <v>404382</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.262317437238474</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2395223858866506</v>
+        <v>0.2371871901946494</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.287414618860145</v>
+        <v>0.2857033390968863</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>227</v>
@@ -5158,19 +5158,19 @@
         <v>239728</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>213713</v>
+        <v>213823</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>269236</v>
+        <v>270235</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2322988700806002</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2070900199847099</v>
+        <v>0.2071961352681761</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2608923195213965</v>
+        <v>0.2618599208364539</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>571</v>
@@ -5179,19 +5179,19 @@
         <v>611010</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>566646</v>
+        <v>570106</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>655965</v>
+        <v>656204</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2496595279322386</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2315323986190477</v>
+        <v>0.2329460944062737</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2680283244409412</v>
+        <v>0.2681260658533974</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>13574</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6313</v>
+        <v>6608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23269</v>
+        <v>24258</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3513101727683078</v>
+        <v>0.3513101727683077</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1633763099165909</v>
+        <v>0.1710308591881455</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6022230688609199</v>
+        <v>0.6277994096717242</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5544,19 +5544,19 @@
         <v>18852</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13201</v>
+        <v>13133</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24547</v>
+        <v>24967</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4865928079766562</v>
+        <v>0.486592807976656</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.340720841911709</v>
+        <v>0.3389687588678802</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6335937446595805</v>
+        <v>0.6444219798252735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -5565,19 +5565,19 @@
         <v>32426</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22829</v>
+        <v>23629</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43074</v>
+        <v>42933</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4190422861868122</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.295016746974118</v>
+        <v>0.3053554514043161</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5566425702009185</v>
+        <v>0.5548143462228271</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>8035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3066</v>
+        <v>2980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15320</v>
+        <v>16015</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2079401080647416</v>
+        <v>0.2079401080647415</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07936265663834274</v>
+        <v>0.07711481935260203</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.396501915259673</v>
+        <v>0.4144807186684182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -5615,19 +5615,19 @@
         <v>6346</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2842</v>
+        <v>2826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11791</v>
+        <v>12737</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1637868889131641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07335217593853884</v>
+        <v>0.07294051254561242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3043409675724045</v>
+        <v>0.3287454361286118</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -5636,19 +5636,19 @@
         <v>14380</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7895</v>
+        <v>8192</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24179</v>
+        <v>24243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1858338647707598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1020304239518717</v>
+        <v>0.1058668648515648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3124682077335215</v>
+        <v>0.3132853947904118</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>11583</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5552</v>
+        <v>5194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19650</v>
+        <v>19299</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2997848451968203</v>
+        <v>0.2997848451968202</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1436776842607803</v>
+        <v>0.1344274601630144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5085451675593816</v>
+        <v>0.4994580425527044</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -5686,19 +5686,19 @@
         <v>4189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1471</v>
+        <v>1606</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8181</v>
+        <v>8926</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1081191740651652</v>
+        <v>0.1081191740651651</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03796408644967508</v>
+        <v>0.04145572880090101</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2111650445424809</v>
+        <v>0.2303823009470117</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -5707,19 +5707,19 @@
         <v>15772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8622</v>
+        <v>8895</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24987</v>
+        <v>25169</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2038233719779578</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.111422211331429</v>
+        <v>0.1149446206154197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.322905676137574</v>
+        <v>0.3252523837003273</v>
       </c>
     </row>
     <row r="7">
@@ -5739,16 +5739,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4298</v>
+        <v>5178</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02258020852930354</v>
+        <v>0.02258020852930353</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1112310056495884</v>
+        <v>0.1340029811932108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5757,19 +5757,19 @@
         <v>3673</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1366</v>
+        <v>1295</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8020</v>
+        <v>8163</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09479563384296867</v>
+        <v>0.09479563384296866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03526655278006955</v>
+        <v>0.03343391539714539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.207007533355121</v>
+        <v>0.2106926504022852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -5778,19 +5778,19 @@
         <v>4545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1847</v>
+        <v>1826</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9189</v>
+        <v>9395</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05873638903523196</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02386287652282829</v>
+        <v>0.02360091932870009</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1187445144548337</v>
+        <v>0.1214104297491784</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>4574</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1172</v>
+        <v>1110</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11044</v>
+        <v>10233</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1183846654408269</v>
+        <v>0.1183846654408268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03034430605801303</v>
+        <v>0.02871868795952818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2858148510813593</v>
+        <v>0.2648485264015124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -5828,19 +5828,19 @@
         <v>5684</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2533</v>
+        <v>2424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11233</v>
+        <v>10623</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.146705495202046</v>
+        <v>0.1467054952020459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06537165773432944</v>
+        <v>0.06256993080494395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2899243984033769</v>
+        <v>0.2741964234341659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -5849,19 +5849,19 @@
         <v>10258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5442</v>
+        <v>5156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18208</v>
+        <v>17743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1325640880292381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07032334906998711</v>
+        <v>0.06663499002668609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2352996618738355</v>
+        <v>0.229288094090963</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>17665</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9445</v>
+        <v>10155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26861</v>
+        <v>29091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1511876101530303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08083926465728272</v>
+        <v>0.08691040389257666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2298956157555454</v>
+        <v>0.2489810852208781</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -5974,19 +5974,19 @@
         <v>27821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19508</v>
+        <v>20146</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36499</v>
+        <v>37536</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.285153666233165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1999467833829922</v>
+        <v>0.206487009543693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3741002863175295</v>
+        <v>0.3847291329292193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -5995,19 +5995,19 @@
         <v>45486</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34259</v>
+        <v>34081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58051</v>
+        <v>59193</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2121485853243569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1597862616878258</v>
+        <v>0.1589550248665443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2707505904134416</v>
+        <v>0.2760795485909643</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>32089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21557</v>
+        <v>21320</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>46342</v>
+        <v>45106</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.274638222584342</v>
+        <v>0.2746382225843419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.184496994370547</v>
+        <v>0.1824682924879113</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3966219944238332</v>
+        <v>0.3860451205068566</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -6045,19 +6045,19 @@
         <v>18765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12404</v>
+        <v>12649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26483</v>
+        <v>27014</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1923286783254184</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.12713448290169</v>
+        <v>0.1296459815773939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.271433085406649</v>
+        <v>0.2768794701117467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -6066,19 +6066,19 @@
         <v>50854</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37645</v>
+        <v>39140</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65011</v>
+        <v>67498</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2371834356722751</v>
+        <v>0.237183435672275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1755791173131296</v>
+        <v>0.1825500209865079</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.303215062273206</v>
+        <v>0.3148135368486928</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>29237</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20477</v>
+        <v>19632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40049</v>
+        <v>40450</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2502274794943704</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1752558306412694</v>
+        <v>0.168018480386902</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3427591956648643</v>
+        <v>0.3461967077265156</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -6116,19 +6116,19 @@
         <v>21065</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14346</v>
+        <v>14468</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29107</v>
+        <v>28622</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2159011573555497</v>
+        <v>0.2159011573555498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1470420075086156</v>
+        <v>0.148291475188846</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2983329164568901</v>
+        <v>0.2933586778802448</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -6137,19 +6137,19 @@
         <v>50301</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37991</v>
+        <v>39349</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64276</v>
+        <v>63468</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2346073580034765</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1771896629071548</v>
+        <v>0.1835226835604218</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2997829006339049</v>
+        <v>0.296014784261238</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>16866</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9358</v>
+        <v>9727</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27322</v>
+        <v>27589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1443513146573427</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08009534068441855</v>
+        <v>0.08324550540643769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2338373288702314</v>
+        <v>0.2361230180659254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6187,19 +6187,19 @@
         <v>16339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10069</v>
+        <v>10254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24718</v>
+        <v>23765</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1674701963047526</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1032013213526869</v>
+        <v>0.1051021209051443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2533417496820754</v>
+        <v>0.2435760938228345</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -6208,19 +6208,19 @@
         <v>33206</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23784</v>
+        <v>23352</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47036</v>
+        <v>47117</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1548715136639744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1109292587120267</v>
+        <v>0.1089135751703082</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2193786612579762</v>
+        <v>0.2197554013260222</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>20984</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13049</v>
+        <v>12881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32553</v>
+        <v>32059</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1795953731109147</v>
+        <v>0.1795953731109146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1116802898901429</v>
+        <v>0.1102454630202512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2786084504655525</v>
+        <v>0.2743778220076454</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -6258,19 +6258,19 @@
         <v>13576</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8022</v>
+        <v>7945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21613</v>
+        <v>20463</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1391463017811144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08222590226046</v>
+        <v>0.08142929734093463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.221520696713013</v>
+        <v>0.2097308748910447</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -6279,19 +6279,19 @@
         <v>34560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23739</v>
+        <v>23597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47815</v>
+        <v>47489</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1611891073359172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1107177914483205</v>
+        <v>0.1100572040357529</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2230096132372267</v>
+        <v>0.2214898219557392</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>14996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8324</v>
+        <v>8113</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24897</v>
+        <v>25140</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1278136888283949</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07094416021254868</v>
+        <v>0.06915266495213025</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2122035690153022</v>
+        <v>0.2142802037583056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -6404,19 +6404,19 @@
         <v>21404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14941</v>
+        <v>14821</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30082</v>
+        <v>29907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1806452147444154</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1260973823728302</v>
+        <v>0.125090067209593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.25388466856355</v>
+        <v>0.2524106643006138</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -6425,19 +6425,19 @@
         <v>36400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25870</v>
+        <v>25805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48524</v>
+        <v>48349</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1543595256286777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1097069210495599</v>
+        <v>0.1094302598130291</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2057746363265865</v>
+        <v>0.2050316609300614</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>11678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5969</v>
+        <v>6149</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20839</v>
+        <v>19367</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09953215415094868</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05087499085787191</v>
+        <v>0.05240573580032521</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1776163356737201</v>
+        <v>0.1650698963508893</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -6475,19 +6475,19 @@
         <v>12147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7048</v>
+        <v>7388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19007</v>
+        <v>19299</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1025192703638284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05948289210808583</v>
+        <v>0.06235289558119386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1604193783979591</v>
+        <v>0.1628802738125746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -6496,19 +6496,19 @@
         <v>23825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15617</v>
+        <v>15793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33440</v>
+        <v>33709</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1010330666859496</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06622712280129074</v>
+        <v>0.06697272480109921</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1418088923323776</v>
+        <v>0.1429492696709509</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>40944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29083</v>
+        <v>29994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54013</v>
+        <v>53658</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3489834662809497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2478881295831246</v>
+        <v>0.2556452424956593</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4603731640458039</v>
+        <v>0.4573436300303694</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -6546,19 +6546,19 @@
         <v>38463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29953</v>
+        <v>30134</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47351</v>
+        <v>48215</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3246196545690767</v>
+        <v>0.3246196545690766</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.252799850726094</v>
+        <v>0.254326859236401</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3996304174078354</v>
+        <v>0.4069282948790923</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>88</v>
@@ -6567,19 +6567,19 @@
         <v>79407</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65733</v>
+        <v>65211</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>96106</v>
+        <v>95183</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3367415755098168</v>
+        <v>0.3367415755098167</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2787533083506469</v>
+        <v>0.2765399241211725</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4075555756883268</v>
+        <v>0.4036397084260809</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>25912</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17248</v>
+        <v>17355</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36630</v>
+        <v>35984</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2208527333355805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.147013294246446</v>
+        <v>0.1479201547139729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3122126896013839</v>
+        <v>0.3067043328369013</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -6617,19 +6617,19 @@
         <v>26183</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19535</v>
+        <v>18359</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35147</v>
+        <v>34836</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2209833620120029</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1648706045600505</v>
+        <v>0.1549498479997672</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2966376178898794</v>
+        <v>0.2940084783448116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -6638,19 +6638,19 @@
         <v>52095</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40875</v>
+        <v>40959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65907</v>
+        <v>64585</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2209183692880846</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1733368844885022</v>
+        <v>0.1736954009942686</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2794895967487781</v>
+        <v>0.2738857189067567</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>23796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15036</v>
+        <v>14352</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36925</v>
+        <v>36817</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2028179574041262</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.128157973744992</v>
+        <v>0.1223250953486472</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3147224168116294</v>
+        <v>0.3138058096415036</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -6688,19 +6688,19 @@
         <v>20289</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12951</v>
+        <v>12817</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29996</v>
+        <v>29766</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1712324983106768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1093077374781337</v>
+        <v>0.1081757470959972</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2531644357168491</v>
+        <v>0.251219515837057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -6709,19 +6709,19 @@
         <v>44084</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33670</v>
+        <v>32150</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61523</v>
+        <v>58418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1869474628874712</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1427844485739845</v>
+        <v>0.1363361753913342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2609016094352756</v>
+        <v>0.247732094317792</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>31545</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20809</v>
+        <v>21148</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43824</v>
+        <v>44566</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1576085840872464</v>
+        <v>0.1576085840872463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1039677498419406</v>
+        <v>0.1056610466245207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2189590489529056</v>
+        <v>0.2226666005080657</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -6834,19 +6834,19 @@
         <v>18430</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12662</v>
+        <v>12198</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26040</v>
+        <v>25594</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1443538145835199</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09917354020736338</v>
+        <v>0.09554165469877765</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2039570226839553</v>
+        <v>0.2004652302535522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -6855,19 +6855,19 @@
         <v>49975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38617</v>
+        <v>37606</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64979</v>
+        <v>65252</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1524463935173829</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.117801382553624</v>
+        <v>0.1147175217084098</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1982175122846632</v>
+        <v>0.1990506737137198</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>10489</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4498</v>
+        <v>5202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19486</v>
+        <v>19764</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05240715880423049</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02247369476671485</v>
+        <v>0.02598871311833752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09735770147360363</v>
+        <v>0.09874913027199858</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -6905,19 +6905,19 @@
         <v>13814</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8452</v>
+        <v>8427</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22838</v>
+        <v>22249</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1081997121656717</v>
+        <v>0.1081997121656716</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06620128480113439</v>
+        <v>0.06600188400962304</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1788819528895814</v>
+        <v>0.1742697569399277</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -6926,19 +6926,19 @@
         <v>24303</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15486</v>
+        <v>15592</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35561</v>
+        <v>35270</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07413607628937159</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04723825186090648</v>
+        <v>0.04756185179410907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1084778236270232</v>
+        <v>0.1075905836301314</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>52024</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39003</v>
+        <v>38579</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67565</v>
+        <v>67417</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.259931253773219</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1948734644952112</v>
+        <v>0.1927554777134738</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3375796499945482</v>
+        <v>0.3368376893072779</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>50</v>
@@ -6976,19 +6976,19 @@
         <v>35847</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27021</v>
+        <v>28378</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45424</v>
+        <v>45382</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.280775492733835</v>
+        <v>0.2807754927338351</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2116424692163205</v>
+        <v>0.2222696909651251</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.355787445180873</v>
+        <v>0.3554553545999649</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>95</v>
@@ -6997,19 +6997,19 @@
         <v>87871</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>72004</v>
+        <v>72712</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104713</v>
+        <v>105225</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2680492322690519</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.219646326207532</v>
+        <v>0.2218072577623504</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3194249812686357</v>
+        <v>0.3209874181462669</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>39719</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29223</v>
+        <v>28621</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53148</v>
+        <v>53297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1984490609138539</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1460069997696045</v>
+        <v>0.1429985294894015</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2655469224822479</v>
+        <v>0.2662909122987744</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -7047,19 +7047,19 @@
         <v>22432</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15984</v>
+        <v>15506</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30668</v>
+        <v>30311</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1757035250350684</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1251951257323443</v>
+        <v>0.1214513099773259</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2402124389527369</v>
+        <v>0.2374162913281639</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -7068,19 +7068,19 @@
         <v>62151</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48687</v>
+        <v>49334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77184</v>
+        <v>77044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1895906050359944</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1485172924874394</v>
+        <v>0.1504928549327299</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2354483596528566</v>
+        <v>0.2350199579398292</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>66369</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52852</v>
+        <v>52197</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>83781</v>
+        <v>83854</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3316039424214502</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2640688938795478</v>
+        <v>0.2607935247264278</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4185984064929302</v>
+        <v>0.4189629908555504</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -7118,19 +7118,19 @@
         <v>37148</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28278</v>
+        <v>28718</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47086</v>
+        <v>47767</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2909674554819052</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2214859282435803</v>
+        <v>0.2249354773585315</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3688075832164943</v>
+        <v>0.3741412039327662</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -7139,19 +7139,19 @@
         <v>103518</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>85636</v>
+        <v>86850</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>123696</v>
+        <v>124516</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3157776928881992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2612308031612182</v>
+        <v>0.2649348230409232</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3773309273067885</v>
+        <v>0.3798325749389871</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>77780</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>60839</v>
+        <v>60254</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>100662</v>
+        <v>98603</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.164456114226777</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.128636906406578</v>
+        <v>0.1273993293075699</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2128379950236237</v>
+        <v>0.2084834187090393</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>104</v>
@@ -7264,19 +7264,19 @@
         <v>86507</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>71869</v>
+        <v>72075</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101206</v>
+        <v>101930</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2261822389288117</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1879085736617924</v>
+        <v>0.1884475726073158</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2646137589181361</v>
+        <v>0.2665079077930603</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>164</v>
@@ -7285,19 +7285,19 @@
         <v>164287</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>142507</v>
+        <v>142255</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>190083</v>
+        <v>194195</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1920544986656475</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1665937529335713</v>
+        <v>0.1662990160790679</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2222101366729424</v>
+        <v>0.2270174908070484</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>62291</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>47197</v>
+        <v>46954</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81185</v>
+        <v>83517</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1317057571946255</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09979186472248422</v>
+        <v>0.09927941380945976</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1716567819879272</v>
+        <v>0.1765865533393257</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -7335,19 +7335,19 @@
         <v>51071</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39575</v>
+        <v>39470</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>65481</v>
+        <v>64610</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1335317442531583</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1034721488269891</v>
+        <v>0.1031999418641085</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1712079972228768</v>
+        <v>0.1689303171973034</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>109</v>
@@ -7356,19 +7356,19 @@
         <v>113362</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>93390</v>
+        <v>93500</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>136953</v>
+        <v>135354</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1325221747660355</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1091743007357942</v>
+        <v>0.1093038050525699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1601002733563839</v>
+        <v>0.1582310648388127</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>133789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>110672</v>
+        <v>112232</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>156751</v>
+        <v>156015</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2828810325136439</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2340018520494831</v>
+        <v>0.2373002603398556</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3314313742281811</v>
+        <v>0.3298741957724315</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>139</v>
@@ -7406,19 +7406,19 @@
         <v>99563</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86741</v>
+        <v>85130</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>113815</v>
+        <v>115144</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2603192840711678</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2267945474880994</v>
+        <v>0.222581745627955</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2975826258401023</v>
+        <v>0.3010579158825883</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>251</v>
@@ -7427,19 +7427,19 @@
         <v>233352</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>208888</v>
+        <v>208896</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>262433</v>
+        <v>258447</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2727934430183646</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2441940203325946</v>
+        <v>0.2442030098225121</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3067894255075188</v>
+        <v>0.3021300163441219</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>83369</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>66603</v>
+        <v>66133</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>103478</v>
+        <v>100550</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1762738965282527</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1408249206516711</v>
+        <v>0.1398296829680084</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.218791905415889</v>
+        <v>0.2126000417062129</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>91</v>
@@ -7477,19 +7477,19 @@
         <v>68628</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>57146</v>
+        <v>55454</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>83020</v>
+        <v>82691</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1794348846669214</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1494150646752193</v>
+        <v>0.1449900363401864</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2170652074481934</v>
+        <v>0.2162048207950494</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>167</v>
@@ -7498,19 +7498,19 @@
         <v>151997</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>130567</v>
+        <v>127617</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>174639</v>
+        <v>178087</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1776872067964545</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1526353203253878</v>
+        <v>0.149187128561839</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2041567021681609</v>
+        <v>0.2081867708504815</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>115723</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>93184</v>
+        <v>94555</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>138917</v>
+        <v>140157</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2446831995367009</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1970253257234158</v>
+        <v>0.1999253696938834</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2937237186139565</v>
+        <v>0.2963445598938833</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>94</v>
@@ -7548,19 +7548,19 @@
         <v>76697</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>63488</v>
+        <v>63088</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>91471</v>
+        <v>92471</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2005318480799408</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1659958819852544</v>
+        <v>0.1649499364873309</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2391603126168718</v>
+        <v>0.2417759221721675</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>185</v>
@@ -7569,19 +7569,19 @@
         <v>192420</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>167999</v>
+        <v>165920</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>221004</v>
+        <v>221348</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2249426767534978</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1963938828963885</v>
+        <v>0.1939634934057859</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2583579762613242</v>
+        <v>0.2587603892782349</v>
       </c>
     </row>
     <row r="33">
